--- a/biology/Zoologie/Hirondelle_bleu_et_blanc/Hirondelle_bleu_et_blanc.xlsx
+++ b/biology/Zoologie/Hirondelle_bleu_et_blanc/Hirondelle_bleu_et_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pygochelidon cyanoleuca
 L'Hirondelle bleu et blanc (Pygoochelidon cyanoleuca) est une espèce d'oiseaux, des hirondelles, d'Amérique du Sud.
@@ -512,13 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce était autrefois placée dans le genre Pygochelidon Baird, 1865, dont elle était la seule espèce.
 Synonyme
-Pygochelidon cyanoleuca
-Sous-espèces
-D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des trois sous-espèces suivantes (ordre phylogénique) :
+Pygochelidon cyanoleuca</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hirondelle_bleu_et_blanc</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hirondelle_bleu_et_blanc</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des trois sous-espèces suivantes (ordre phylogénique) :
 P. cyanoleuca cyanoleuca (Vieillot, 1817) ;
 P. cyanoleuca peruviana (Chapman, 1922) ;
 P. cyanoleuca patagonica (Orbigny &amp; Lafresnaye, 1837).</t>
